--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H2">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>60.80093183443222</v>
+        <v>212.7557835909653</v>
       </c>
       <c r="R2">
-        <v>547.2083865098899</v>
+        <v>1914.802052318688</v>
       </c>
       <c r="S2">
-        <v>0.006741333596166733</v>
+        <v>0.01739035920834194</v>
       </c>
       <c r="T2">
-        <v>0.006741333596166734</v>
+        <v>0.01739035920834194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H3">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
-        <v>913.3560299496297</v>
+        <v>2331.905483702174</v>
       </c>
       <c r="R3">
-        <v>8220.204269546668</v>
+        <v>20987.14935331957</v>
       </c>
       <c r="S3">
-        <v>0.1012688046743717</v>
+        <v>0.1906066820700297</v>
       </c>
       <c r="T3">
-        <v>0.1012688046743718</v>
+        <v>0.1906066820700297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H4">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>462.2312383997389</v>
+        <v>1329.637569111273</v>
       </c>
       <c r="R4">
-        <v>4160.08114559765</v>
+        <v>11966.73812200146</v>
       </c>
       <c r="S4">
-        <v>0.0512501187499442</v>
+        <v>0.1086827091300447</v>
       </c>
       <c r="T4">
-        <v>0.05125011874994422</v>
+        <v>0.1086827091300447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H5">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>95.85396329271933</v>
+        <v>290.6767516105334</v>
       </c>
       <c r="R5">
-        <v>862.6856696344739</v>
+        <v>2616.090764494801</v>
       </c>
       <c r="S5">
-        <v>0.01062785591560623</v>
+        <v>0.02375950979428895</v>
       </c>
       <c r="T5">
-        <v>0.01062785591560623</v>
+        <v>0.02375950979428896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>124.331589</v>
       </c>
       <c r="I6">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J6">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N6">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q6">
-        <v>159.468179563135</v>
+        <v>218.561837201292</v>
       </c>
       <c r="R6">
-        <v>1435.213616068215</v>
+        <v>1967.056534811628</v>
       </c>
       <c r="S6">
-        <v>0.01768111382463568</v>
+        <v>0.01786493788330097</v>
       </c>
       <c r="T6">
-        <v>0.01768111382463568</v>
+        <v>0.01786493788330097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>124.331589</v>
       </c>
       <c r="I7">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J7">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P7">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q7">
         <v>2395.542617433962</v>
@@ -883,10 +883,10 @@
         <v>21559.88355690566</v>
       </c>
       <c r="S7">
-        <v>0.2656069806945182</v>
+        <v>0.1958082920846026</v>
       </c>
       <c r="T7">
-        <v>0.2656069806945183</v>
+        <v>0.1958082920846026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>124.331589</v>
       </c>
       <c r="I8">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J8">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N8">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q8">
-        <v>1212.336257041975</v>
+        <v>1365.923055119054</v>
       </c>
       <c r="R8">
-        <v>10911.02631337778</v>
+        <v>12293.30749607149</v>
       </c>
       <c r="S8">
-        <v>0.1344183862461754</v>
+        <v>0.1116486338399353</v>
       </c>
       <c r="T8">
-        <v>0.1344183862461754</v>
+        <v>0.1116486338399353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>124.331589</v>
       </c>
       <c r="I9">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J9">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N9">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O9">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P9">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q9">
-        <v>251.404979644491</v>
+        <v>298.60924949445</v>
       </c>
       <c r="R9">
-        <v>2262.644816800419</v>
+        <v>2687.48324545005</v>
       </c>
       <c r="S9">
-        <v>0.0278746523184244</v>
+        <v>0.02440790104030996</v>
       </c>
       <c r="T9">
-        <v>0.02787465231842442</v>
+        <v>0.02440790104030997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H10">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N10">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P10">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q10">
-        <v>137.5569365920672</v>
+        <v>193.23861918062</v>
       </c>
       <c r="R10">
-        <v>1238.012429328605</v>
+        <v>1739.14757262558</v>
       </c>
       <c r="S10">
-        <v>0.01525169384836187</v>
+        <v>0.01579505357624355</v>
       </c>
       <c r="T10">
-        <v>0.01525169384836188</v>
+        <v>0.01579505357624355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H11">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>173.406322</v>
       </c>
       <c r="O11">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P11">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q11">
-        <v>2066.390328356992</v>
+        <v>2117.987996023903</v>
       </c>
       <c r="R11">
-        <v>18597.51295521292</v>
+        <v>19061.89196421513</v>
       </c>
       <c r="S11">
-        <v>0.2291120567244029</v>
+        <v>0.1731213667997135</v>
       </c>
       <c r="T11">
-        <v>0.229112056724403</v>
+        <v>0.1731213667997135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H12">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N12">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P12">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q12">
-        <v>1045.758859824214</v>
+        <v>1207.663187947524</v>
       </c>
       <c r="R12">
-        <v>9411.829738417924</v>
+        <v>10868.96869152771</v>
       </c>
       <c r="S12">
-        <v>0.115949034373674</v>
+        <v>0.09871269437015967</v>
       </c>
       <c r="T12">
-        <v>0.115949034373674</v>
+        <v>0.0987126943701597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H13">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N13">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O13">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P13">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q13">
-        <v>216.8614386809103</v>
+        <v>264.01150258325</v>
       </c>
       <c r="R13">
-        <v>1951.752948128192</v>
+        <v>2376.10352324925</v>
       </c>
       <c r="S13">
-        <v>0.02404462001131309</v>
+        <v>0.0215799297559109</v>
       </c>
       <c r="T13">
-        <v>0.0240446200113131</v>
+        <v>0.02157992975591091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H14">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N14">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O14">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P14">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q14">
-        <v>0.06203955010555555</v>
+        <v>0.3886722686946666</v>
       </c>
       <c r="R14">
-        <v>0.5583559509499999</v>
+        <v>3.498050418252</v>
       </c>
       <c r="S14">
-        <v>6.87866601381269E-06</v>
+        <v>3.176952585183905E-05</v>
       </c>
       <c r="T14">
-        <v>6.87866601381269E-06</v>
+        <v>3.176952585183906E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H15">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>173.406322</v>
       </c>
       <c r="O15">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P15">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q15">
-        <v>0.9319626439044444</v>
+        <v>4.260034577835778</v>
       </c>
       <c r="R15">
-        <v>8.387663795139998</v>
+        <v>38.340311200522</v>
       </c>
       <c r="S15">
-        <v>0.0001033318222627545</v>
+        <v>0.0003482092486423359</v>
       </c>
       <c r="T15">
-        <v>0.0001033318222627545</v>
+        <v>0.000348209248642336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H16">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N16">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O16">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P16">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q16">
-        <v>0.4716476739722222</v>
+        <v>2.429044427397111</v>
       </c>
       <c r="R16">
-        <v>4.244829065749999</v>
+        <v>21.861399846574</v>
       </c>
       <c r="S16">
-        <v>5.229417073345299E-05</v>
+        <v>0.0001985466830207046</v>
       </c>
       <c r="T16">
-        <v>5.229417073345299E-05</v>
+        <v>0.0001985466830207047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H17">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N17">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O17">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P17">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q17">
-        <v>0.09780667136333332</v>
+        <v>0.5310219567166666</v>
       </c>
       <c r="R17">
-        <v>0.8802600422699999</v>
+        <v>4.779197610450001</v>
       </c>
       <c r="S17">
-        <v>1.084436339538931E-05</v>
+        <v>4.340498960335472E-05</v>
       </c>
       <c r="T17">
-        <v>1.084436339538932E-05</v>
+        <v>4.340498960335474E-05</v>
       </c>
     </row>
   </sheetData>
